--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value992.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value992.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.599643884822773</v>
+        <v>0.2458139657974243</v>
       </c>
       <c r="B1">
-        <v>4.407135852582075</v>
+        <v>1.072569966316223</v>
       </c>
       <c r="C1">
-        <v>4.212494953329195</v>
+        <v>3.871024608612061</v>
       </c>
       <c r="D1">
-        <v>1.230908374386611</v>
+        <v>1.614328861236572</v>
       </c>
       <c r="E1">
-        <v>0.7489385061555788</v>
+        <v>1.11142110824585</v>
       </c>
     </row>
   </sheetData>
